--- a/data/pca/factorExposure/factorExposure_2017-09-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02447939652274422</v>
+        <v>0.006334858268763672</v>
       </c>
       <c r="C2">
-        <v>0.00918396704307785</v>
+        <v>0.0413974323732264</v>
       </c>
       <c r="D2">
-        <v>0.01646792641847704</v>
+        <v>-0.02959200491526941</v>
       </c>
       <c r="E2">
-        <v>-0.009439401597070187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03248881106828712</v>
+      </c>
+      <c r="F2">
+        <v>0.02143662850223694</v>
+      </c>
+      <c r="G2">
+        <v>0.0423675577275467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01519970321075038</v>
+        <v>0.05587915566930168</v>
       </c>
       <c r="C3">
-        <v>0.05700999884398131</v>
+        <v>0.07102389805775156</v>
       </c>
       <c r="D3">
-        <v>0.006954266936594121</v>
+        <v>-0.01451751132561011</v>
       </c>
       <c r="E3">
-        <v>-0.003331372896563428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09936363069082556</v>
+      </c>
+      <c r="F3">
+        <v>0.05602756269979301</v>
+      </c>
+      <c r="G3">
+        <v>0.1010853126299332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02304506578062885</v>
+        <v>0.05478680229826059</v>
       </c>
       <c r="C4">
-        <v>0.02468318315950965</v>
+        <v>0.06341945262045123</v>
       </c>
       <c r="D4">
-        <v>0.06132260071642286</v>
+        <v>-0.02323635443645911</v>
       </c>
       <c r="E4">
-        <v>0.01820947218563922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01741376181064018</v>
+      </c>
+      <c r="F4">
+        <v>0.00799707838787095</v>
+      </c>
+      <c r="G4">
+        <v>0.05859074653432766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0155734375844749</v>
+        <v>0.03647050963418361</v>
       </c>
       <c r="C6">
-        <v>0.02347417000808499</v>
+        <v>0.04919603824710869</v>
       </c>
       <c r="D6">
-        <v>0.07907029677037801</v>
+        <v>-0.01540950174917201</v>
       </c>
       <c r="E6">
-        <v>0.009912952633018305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01581537193471582</v>
+      </c>
+      <c r="F6">
+        <v>0.01381792851379413</v>
+      </c>
+      <c r="G6">
+        <v>0.03474334360815171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01037032898355164</v>
+        <v>0.01547202519630921</v>
       </c>
       <c r="C7">
-        <v>0.005496233895777755</v>
+        <v>0.03542300050273255</v>
       </c>
       <c r="D7">
-        <v>0.02994037627359354</v>
+        <v>-0.01332321588836888</v>
       </c>
       <c r="E7">
-        <v>0.07269469833784345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008457484276086226</v>
+      </c>
+      <c r="F7">
+        <v>0.00418953094508451</v>
+      </c>
+      <c r="G7">
+        <v>0.09601617988303408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-3.714408792530782e-05</v>
+        <v>-0.001955443758025193</v>
       </c>
       <c r="C8">
-        <v>0.0005146036753911902</v>
+        <v>0.01864796275748538</v>
       </c>
       <c r="D8">
-        <v>0.0048492974765959</v>
+        <v>-0.00383792809171429</v>
       </c>
       <c r="E8">
-        <v>0.008835962575981231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02248026419222883</v>
+      </c>
+      <c r="F8">
+        <v>0.0231746536731291</v>
+      </c>
+      <c r="G8">
+        <v>0.03135533609760185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01594997672158951</v>
+        <v>0.0318375893869596</v>
       </c>
       <c r="C9">
-        <v>0.02490405957265409</v>
+        <v>0.04384099279991924</v>
       </c>
       <c r="D9">
-        <v>0.04640494645063989</v>
+        <v>-0.01595844421443425</v>
       </c>
       <c r="E9">
-        <v>0.008177299229524249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.0124361870355846</v>
+      </c>
+      <c r="F9">
+        <v>0.0122205214964884</v>
+      </c>
+      <c r="G9">
+        <v>0.0543144589527626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01550403772444318</v>
+        <v>0.09450184734422035</v>
       </c>
       <c r="C10">
-        <v>0.1563077066147465</v>
+        <v>-0.1834001027951384</v>
       </c>
       <c r="D10">
-        <v>-0.1251730022074512</v>
+        <v>0.01768714624859495</v>
       </c>
       <c r="E10">
-        <v>0.01051072226567079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.009190156777467932</v>
+      </c>
+      <c r="F10">
+        <v>-0.01838414391778078</v>
+      </c>
+      <c r="G10">
+        <v>0.04890061762279814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006167178197951414</v>
+        <v>0.03119697401190148</v>
       </c>
       <c r="C11">
-        <v>0.009922145776965697</v>
+        <v>0.05392248489759515</v>
       </c>
       <c r="D11">
-        <v>0.04236200767237139</v>
+        <v>-0.002289833141340627</v>
       </c>
       <c r="E11">
-        <v>-0.006064984004889182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.006916103944692698</v>
+      </c>
+      <c r="F11">
+        <v>0.02301751420349949</v>
+      </c>
+      <c r="G11">
+        <v>0.03513881115987847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006023496665302874</v>
+        <v>0.03101104618066015</v>
       </c>
       <c r="C12">
-        <v>0.01725773227172707</v>
+        <v>0.0466532343720081</v>
       </c>
       <c r="D12">
-        <v>0.04412969820612561</v>
+        <v>-0.006293861822823281</v>
       </c>
       <c r="E12">
-        <v>0.002840409252372343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001075478371707294</v>
+      </c>
+      <c r="F12">
+        <v>0.007663058079101781</v>
+      </c>
+      <c r="G12">
+        <v>0.03633209352799528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02224560571086198</v>
+        <v>0.01373693307607465</v>
       </c>
       <c r="C13">
-        <v>0.01824274097709984</v>
+        <v>0.03153285368524415</v>
       </c>
       <c r="D13">
-        <v>0.01393911912510338</v>
+        <v>-0.02502956959141992</v>
       </c>
       <c r="E13">
-        <v>-0.007428851135471537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02270641920410472</v>
+      </c>
+      <c r="F13">
+        <v>0.0115181229068739</v>
+      </c>
+      <c r="G13">
+        <v>0.05190710183287556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007493262590304932</v>
+        <v>0.007845833122269819</v>
       </c>
       <c r="C14">
-        <v>0.01487064922340079</v>
+        <v>0.02532739262658911</v>
       </c>
       <c r="D14">
-        <v>0.01422006819700551</v>
+        <v>-0.008627851655901185</v>
       </c>
       <c r="E14">
-        <v>0.01213475651424207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00500808406758698</v>
+      </c>
+      <c r="F14">
+        <v>-0.0040750402231218</v>
+      </c>
+      <c r="G14">
+        <v>0.05331219792100841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001288783402808597</v>
+        <v>0.03124461224695125</v>
       </c>
       <c r="C16">
-        <v>0.01727109114494765</v>
+        <v>0.04470846920363918</v>
       </c>
       <c r="D16">
-        <v>0.0453292945472082</v>
+        <v>-0.001678456397936244</v>
       </c>
       <c r="E16">
-        <v>0.0009442174424111971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006391279983410802</v>
+      </c>
+      <c r="F16">
+        <v>0.01008870059263146</v>
+      </c>
+      <c r="G16">
+        <v>0.03554544273410756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01385576006526881</v>
+        <v>0.02253846559680176</v>
       </c>
       <c r="C19">
-        <v>0.02854050272007123</v>
+        <v>0.04928256774805131</v>
       </c>
       <c r="D19">
-        <v>0.02080894999983502</v>
+        <v>-0.01640171639627661</v>
       </c>
       <c r="E19">
-        <v>0.004169150122274251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05450896215254915</v>
+      </c>
+      <c r="F19">
+        <v>0.02616428539079668</v>
+      </c>
+      <c r="G19">
+        <v>0.06181384066766327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01073006834049159</v>
+        <v>0.01159498831708012</v>
       </c>
       <c r="C20">
-        <v>0.01043438907758678</v>
+        <v>0.03285859662055592</v>
       </c>
       <c r="D20">
-        <v>0.009728232103188534</v>
+        <v>-0.0131525678508064</v>
       </c>
       <c r="E20">
-        <v>0.0002948092201564918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02401291241977519</v>
+      </c>
+      <c r="F20">
+        <v>-0.002201904192984484</v>
+      </c>
+      <c r="G20">
+        <v>0.05251528959954258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0149992372107736</v>
+        <v>0.01336686136776758</v>
       </c>
       <c r="C21">
-        <v>0.03274425424792907</v>
+        <v>0.03388052427406067</v>
       </c>
       <c r="D21">
-        <v>0.01765169180040338</v>
+        <v>-0.01650816200865368</v>
       </c>
       <c r="E21">
-        <v>0.01883986486541461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03112365622374205</v>
+      </c>
+      <c r="F21">
+        <v>0.003490347861530579</v>
+      </c>
+      <c r="G21">
+        <v>0.07500458559115347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.005006050530000365</v>
+        <v>0.02471481730092645</v>
       </c>
       <c r="C24">
-        <v>0.007407711193340287</v>
+        <v>0.04813454039159484</v>
       </c>
       <c r="D24">
-        <v>0.04308399589164853</v>
+        <v>-0.007224246554980131</v>
       </c>
       <c r="E24">
-        <v>-0.0005048899036277763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.002798922416942282</v>
+      </c>
+      <c r="F24">
+        <v>0.01958807222332283</v>
+      </c>
+      <c r="G24">
+        <v>0.03791586693379068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01208557125828202</v>
+        <v>0.03918229298778061</v>
       </c>
       <c r="C25">
-        <v>0.02549394155932496</v>
+        <v>0.05570747419686928</v>
       </c>
       <c r="D25">
-        <v>0.04196458226227633</v>
+        <v>-0.01134504607406582</v>
       </c>
       <c r="E25">
-        <v>0.000206627460395847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.00440579408201972</v>
+      </c>
+      <c r="F25">
+        <v>0.01483952468854668</v>
+      </c>
+      <c r="G25">
+        <v>0.04434169115623945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02296551480350741</v>
+        <v>0.01201852961752098</v>
       </c>
       <c r="C26">
-        <v>0.0111862936539087</v>
+        <v>0.007460406269991918</v>
       </c>
       <c r="D26">
-        <v>-0.006232743535131972</v>
+        <v>-0.02333788689489478</v>
       </c>
       <c r="E26">
-        <v>0.009007572462205871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003189091134926011</v>
+      </c>
+      <c r="F26">
+        <v>-0.004005720431189078</v>
+      </c>
+      <c r="G26">
+        <v>0.04131510391313279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03629631500701193</v>
+        <v>0.1223763963604115</v>
       </c>
       <c r="C28">
-        <v>0.2288276745588266</v>
+        <v>-0.230313477945351</v>
       </c>
       <c r="D28">
-        <v>-0.181934508441875</v>
+        <v>0.008815800604151746</v>
       </c>
       <c r="E28">
-        <v>0.01984298566522711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.002914969203216379</v>
+      </c>
+      <c r="F28">
+        <v>-0.01825480124040502</v>
+      </c>
+      <c r="G28">
+        <v>0.06634763112904471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007917030989002264</v>
+        <v>0.01055161599272269</v>
       </c>
       <c r="C29">
-        <v>0.0207177064348982</v>
+        <v>0.01887257677782094</v>
       </c>
       <c r="D29">
-        <v>0.009910022398400154</v>
+        <v>-0.007406890698964371</v>
       </c>
       <c r="E29">
-        <v>0.006968411808679577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007437290025253955</v>
+      </c>
+      <c r="F29">
+        <v>-0.01302225478156115</v>
+      </c>
+      <c r="G29">
+        <v>0.04357709734043073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02364762690422779</v>
+        <v>0.04431641796600382</v>
       </c>
       <c r="C30">
-        <v>0.009292323716240204</v>
+        <v>0.06350760395654552</v>
       </c>
       <c r="D30">
-        <v>0.06668799747526231</v>
+        <v>-0.02753787629741217</v>
       </c>
       <c r="E30">
-        <v>-0.05415433372441246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04320016704683038</v>
+      </c>
+      <c r="F30">
+        <v>0.052540316699621</v>
+      </c>
+      <c r="G30">
+        <v>0.02669770369723166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.008669979960754391</v>
+        <v>0.04990154068721903</v>
       </c>
       <c r="C31">
-        <v>0.04533244326975874</v>
+        <v>0.03419702404780223</v>
       </c>
       <c r="D31">
-        <v>0.03977206814385978</v>
+        <v>-0.003524198069693972</v>
       </c>
       <c r="E31">
-        <v>0.01140200241688919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005623691408603102</v>
+      </c>
+      <c r="F31">
+        <v>-0.03571779239529347</v>
+      </c>
+      <c r="G31">
+        <v>0.04529111506446354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006358860857619914</v>
+        <v>-0.003677917381578152</v>
       </c>
       <c r="C32">
-        <v>0.02276944356297376</v>
+        <v>0.02896144611570729</v>
       </c>
       <c r="D32">
-        <v>-0.00567482560195973</v>
+        <v>0.004080855433928238</v>
       </c>
       <c r="E32">
-        <v>0.03093978732423912</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01407616144178794</v>
+      </c>
+      <c r="F32">
+        <v>0.04944354907565029</v>
+      </c>
+      <c r="G32">
+        <v>0.06477964388241303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0132352838168022</v>
+        <v>0.02562651140590712</v>
       </c>
       <c r="C33">
-        <v>0.02806188057342697</v>
+        <v>0.04621818045221696</v>
       </c>
       <c r="D33">
-        <v>0.02098451823317477</v>
+        <v>-0.01452851746575985</v>
       </c>
       <c r="E33">
-        <v>-0.02170262070131581</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02671047227422415</v>
+      </c>
+      <c r="F33">
+        <v>0.02446989074290281</v>
+      </c>
+      <c r="G33">
+        <v>0.0563519568761299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004340902905424175</v>
+        <v>0.03873777905952685</v>
       </c>
       <c r="C34">
-        <v>0.02157934590504406</v>
+        <v>0.05838224558777731</v>
       </c>
       <c r="D34">
-        <v>0.04578916262291981</v>
+        <v>0.004473870382308656</v>
       </c>
       <c r="E34">
-        <v>0.008910039603822736</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.004054190194010905</v>
+      </c>
+      <c r="F34">
+        <v>0.02529073791099894</v>
+      </c>
+      <c r="G34">
+        <v>0.04838775946542959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01274336797319652</v>
+        <v>0.01175146299368074</v>
       </c>
       <c r="C36">
-        <v>0.02308976660438</v>
+        <v>0.007092678794641473</v>
       </c>
       <c r="D36">
-        <v>0.001217411989317509</v>
+        <v>-0.0114863040565743</v>
       </c>
       <c r="E36">
-        <v>0.003668788200390675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0004191990279917355</v>
+      </c>
+      <c r="F36">
+        <v>-0.006539248046147039</v>
+      </c>
+      <c r="G36">
+        <v>0.03705740155485954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00404255457579144</v>
+        <v>0.03079043703143459</v>
       </c>
       <c r="C38">
-        <v>0.03904805917921309</v>
+        <v>0.0288308289123292</v>
       </c>
       <c r="D38">
-        <v>0.02532233065240931</v>
+        <v>0.007391827197615022</v>
       </c>
       <c r="E38">
-        <v>0.001540509745338603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005460736008603542</v>
+      </c>
+      <c r="F38">
+        <v>-0.008571738586851611</v>
+      </c>
+      <c r="G38">
+        <v>0.04391501489800954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00575613646302059</v>
+        <v>0.03048320394344645</v>
       </c>
       <c r="C39">
-        <v>-0.01222667711521106</v>
+        <v>0.08167579719789819</v>
       </c>
       <c r="D39">
-        <v>0.09242138509433605</v>
+        <v>-0.01218795720098337</v>
       </c>
       <c r="E39">
-        <v>-0.002946714945258275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02122823517298047</v>
+      </c>
+      <c r="F39">
+        <v>0.03631096634788091</v>
+      </c>
+      <c r="G39">
+        <v>0.04125156556480779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0122471548066304</v>
+        <v>0.01879961786910628</v>
       </c>
       <c r="C40">
-        <v>0.0274517515268991</v>
+        <v>0.0318345796513021</v>
       </c>
       <c r="D40">
-        <v>0.02867065757014028</v>
+        <v>-0.01324100098529959</v>
       </c>
       <c r="E40">
-        <v>-0.001928257452868838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01947204648684803</v>
+      </c>
+      <c r="F40">
+        <v>0.0179908637913143</v>
+      </c>
+      <c r="G40">
+        <v>0.03869527642132757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005850032675885707</v>
+        <v>0.01123877327812171</v>
       </c>
       <c r="C41">
-        <v>0.02254988327906933</v>
+        <v>0.00135956969764683</v>
       </c>
       <c r="D41">
-        <v>-0.00868490286948119</v>
+        <v>-0.004042027865716434</v>
       </c>
       <c r="E41">
-        <v>0.002444575757925414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009669320533503664</v>
+      </c>
+      <c r="F41">
+        <v>0.000639572910254203</v>
+      </c>
+      <c r="G41">
+        <v>0.02589438582126443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09315859166089242</v>
+        <v>0.01430158497650427</v>
       </c>
       <c r="C42">
-        <v>0.004232846918533458</v>
+        <v>0.0421229062515247</v>
       </c>
       <c r="D42">
-        <v>0.2837856287759171</v>
+        <v>-0.09444886149861076</v>
       </c>
       <c r="E42">
-        <v>-0.2593013873034277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03653468639792974</v>
+      </c>
+      <c r="F42">
+        <v>-0.0438292002770866</v>
+      </c>
+      <c r="G42">
+        <v>-0.1538653466769202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007143692615143729</v>
+        <v>0.02894387868436166</v>
       </c>
       <c r="C43">
-        <v>0.02567950664791154</v>
+        <v>0.01275101775198141</v>
       </c>
       <c r="D43">
-        <v>-0.01317506083260944</v>
+        <v>-0.004753936068577655</v>
       </c>
       <c r="E43">
-        <v>-0.003991285076845661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008518652696066756</v>
+      </c>
+      <c r="F43">
+        <v>-0.0007858329917507648</v>
+      </c>
+      <c r="G43">
+        <v>0.03719995230380045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003652467120217516</v>
+        <v>0.01528359672632705</v>
       </c>
       <c r="C44">
-        <v>0.01106283975179515</v>
+        <v>0.04765308280077661</v>
       </c>
       <c r="D44">
-        <v>0.02689967950224083</v>
+        <v>-0.00625861633424422</v>
       </c>
       <c r="E44">
-        <v>0.003992691279418262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01683539678432467</v>
+      </c>
+      <c r="F44">
+        <v>0.0023550756903349</v>
+      </c>
+      <c r="G44">
+        <v>0.0571379285549861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01104956086057566</v>
+        <v>0.005553546634808712</v>
       </c>
       <c r="C46">
-        <v>0.01955367314043294</v>
+        <v>0.01652176242323513</v>
       </c>
       <c r="D46">
-        <v>0.009621748701348673</v>
+        <v>-0.01146022259165955</v>
       </c>
       <c r="E46">
-        <v>0.002330463350417749</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005990719284469298</v>
+      </c>
+      <c r="F46">
+        <v>-0.01846217615666454</v>
+      </c>
+      <c r="G46">
+        <v>0.04186138091846688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.003062486044279908</v>
+        <v>0.07528054248050235</v>
       </c>
       <c r="C47">
-        <v>0.06002938072864668</v>
+        <v>0.06703304435205784</v>
       </c>
       <c r="D47">
-        <v>0.05471960333590838</v>
+        <v>0.004729748802499678</v>
       </c>
       <c r="E47">
-        <v>0.0003605612131382251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009116726080345135</v>
+      </c>
+      <c r="F47">
+        <v>-0.05269427178427219</v>
+      </c>
+      <c r="G47">
+        <v>0.04062372234197132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003633981684762871</v>
+        <v>0.0199721244209915</v>
       </c>
       <c r="C48">
-        <v>0.02979441716706287</v>
+        <v>0.00908086966833538</v>
       </c>
       <c r="D48">
-        <v>0.009110138452121325</v>
+        <v>-0.0008640044635219295</v>
       </c>
       <c r="E48">
-        <v>0.004461361957930304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004061367387743438</v>
+      </c>
+      <c r="F48">
+        <v>-0.0160520294745526</v>
+      </c>
+      <c r="G48">
+        <v>0.04341545514241468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.004104875127706841</v>
+        <v>0.07791304276578184</v>
       </c>
       <c r="C50">
-        <v>0.05287631502740527</v>
+        <v>0.06865236818292222</v>
       </c>
       <c r="D50">
-        <v>0.0583857923352773</v>
+        <v>0.003048914349438387</v>
       </c>
       <c r="E50">
-        <v>0.02789312355087585</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01272951397299048</v>
+      </c>
+      <c r="F50">
+        <v>-0.05501224110806508</v>
+      </c>
+      <c r="G50">
+        <v>0.06516820057580254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007099303749846008</v>
+        <v>0.01122977791817772</v>
       </c>
       <c r="C51">
-        <v>0.01966109621021758</v>
+        <v>0.02943247819834164</v>
       </c>
       <c r="D51">
-        <v>-0.003471313347189967</v>
+        <v>-0.009049330135664892</v>
       </c>
       <c r="E51">
-        <v>0.004176285108238973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009335857975182636</v>
+      </c>
+      <c r="F51">
+        <v>0.01931396637182808</v>
+      </c>
+      <c r="G51">
+        <v>0.06397198209982727</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.006055197625249109</v>
+        <v>0.08287345625934876</v>
       </c>
       <c r="C53">
-        <v>0.07459132262175659</v>
+        <v>0.08169867132173746</v>
       </c>
       <c r="D53">
-        <v>0.1126395095130535</v>
+        <v>0.004108544352456681</v>
       </c>
       <c r="E53">
-        <v>0.01263891291485338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03270817673595768</v>
+      </c>
+      <c r="F53">
+        <v>-0.05657319510257691</v>
+      </c>
+      <c r="G53">
+        <v>0.04225325225138658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0002481144908103981</v>
+        <v>0.03109938707436487</v>
       </c>
       <c r="C54">
-        <v>0.03614904600084745</v>
+        <v>0.01226651564589642</v>
       </c>
       <c r="D54">
-        <v>-0.01007576633245012</v>
+        <v>0.002882275972282525</v>
       </c>
       <c r="E54">
-        <v>0.01079057175183866</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001046132203320677</v>
+      </c>
+      <c r="F54">
+        <v>-0.005335742317107246</v>
+      </c>
+      <c r="G54">
+        <v>0.04684980156465098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003138792183052237</v>
+        <v>0.07074478127293091</v>
       </c>
       <c r="C55">
-        <v>0.05543029839759268</v>
+        <v>0.07317340846211362</v>
       </c>
       <c r="D55">
-        <v>0.09917584842859881</v>
+        <v>0.004528827916002831</v>
       </c>
       <c r="E55">
-        <v>-0.0005927745911237584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02425325513759495</v>
+      </c>
+      <c r="F55">
+        <v>-0.05574154143071087</v>
+      </c>
+      <c r="G55">
+        <v>0.02430499105294606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.004495101235946346</v>
+        <v>0.1415894424207561</v>
       </c>
       <c r="C56">
-        <v>0.1035587237484795</v>
+        <v>0.108036057882451</v>
       </c>
       <c r="D56">
-        <v>0.1454959356016389</v>
+        <v>0.01252245106813208</v>
       </c>
       <c r="E56">
-        <v>0.002472982357525185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0368389877522744</v>
+      </c>
+      <c r="F56">
+        <v>-0.07862496881310495</v>
+      </c>
+      <c r="G56">
+        <v>0.01150737566265536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02405357160631553</v>
+        <v>0.009329899894284836</v>
       </c>
       <c r="C57">
-        <v>0.02348258708949374</v>
+        <v>0.009859643378837926</v>
       </c>
       <c r="D57">
-        <v>0.04046315762453458</v>
+        <v>-0.02354034693458371</v>
       </c>
       <c r="E57">
-        <v>-0.0004938858144977487</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02625220241840033</v>
+      </c>
+      <c r="F57">
+        <v>0.01335910565931814</v>
+      </c>
+      <c r="G57">
+        <v>0.02507763157611936</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01262096185533825</v>
+        <v>0.08211106299278967</v>
       </c>
       <c r="C58">
-        <v>0.1061981180421169</v>
+        <v>0.0327856823859212</v>
       </c>
       <c r="D58">
-        <v>0.08936949186129402</v>
+        <v>-0.01504400175687575</v>
       </c>
       <c r="E58">
-        <v>-0.2040227598748005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9466750771932035</v>
+      </c>
+      <c r="F58">
+        <v>-0.2157688339612666</v>
+      </c>
+      <c r="G58">
+        <v>-0.01701781270043231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03242238479840327</v>
+        <v>0.1619979198958608</v>
       </c>
       <c r="C59">
-        <v>0.2401041356645529</v>
+        <v>-0.2106670004939967</v>
       </c>
       <c r="D59">
-        <v>-0.1834478873246156</v>
+        <v>0.01601423172945974</v>
       </c>
       <c r="E59">
-        <v>-0.003873393441593697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.001194199876871358</v>
+      </c>
+      <c r="F59">
+        <v>-0.000608997170882186</v>
+      </c>
+      <c r="G59">
+        <v>0.02205022767877515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03668559033152354</v>
+        <v>0.2834688348240936</v>
       </c>
       <c r="C60">
-        <v>0.1629639752053541</v>
+        <v>0.1040407848541047</v>
       </c>
       <c r="D60">
-        <v>0.06788414375335418</v>
+        <v>-0.01157641269495962</v>
       </c>
       <c r="E60">
-        <v>-0.03304112026744736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.006012955674296202</v>
+      </c>
+      <c r="F60">
+        <v>0.3565539082953404</v>
+      </c>
+      <c r="G60">
+        <v>-0.1023864107921861</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003778757078596446</v>
+        <v>0.03340887989318631</v>
       </c>
       <c r="C61">
-        <v>0.0139931499553051</v>
+        <v>0.06524509529924709</v>
       </c>
       <c r="D61">
-        <v>0.06206478677289708</v>
+        <v>-0.005496750661567135</v>
       </c>
       <c r="E61">
-        <v>0.001549301961458433</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01016884923794298</v>
+      </c>
+      <c r="F61">
+        <v>0.0212924672363246</v>
+      </c>
+      <c r="G61">
+        <v>0.03826880727409202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007619082698162654</v>
+        <v>0.01262030013018776</v>
       </c>
       <c r="C63">
-        <v>0.01072952792551464</v>
+        <v>0.02767649581935994</v>
       </c>
       <c r="D63">
-        <v>0.006663748907910991</v>
+        <v>-0.008064496934989163</v>
       </c>
       <c r="E63">
-        <v>0.009732336246480918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004139331529386144</v>
+      </c>
+      <c r="F63">
+        <v>-0.0160154993713919</v>
+      </c>
+      <c r="G63">
+        <v>0.04754673835627327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008289598585753543</v>
+        <v>0.05001340681109755</v>
       </c>
       <c r="C64">
-        <v>0.03695753959812473</v>
+        <v>0.04300181113954217</v>
       </c>
       <c r="D64">
-        <v>0.06484293059642428</v>
+        <v>-0.005600094987489701</v>
       </c>
       <c r="E64">
-        <v>-0.008752268402613872</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006726124891045431</v>
+      </c>
+      <c r="F64">
+        <v>0.004045665515473907</v>
+      </c>
+      <c r="G64">
+        <v>0.03303537608913937</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01809320114219037</v>
+        <v>0.08371751591697868</v>
       </c>
       <c r="C65">
-        <v>0.02938014003793481</v>
+        <v>0.05978760806502333</v>
       </c>
       <c r="D65">
-        <v>0.08999439313465507</v>
+        <v>-0.01479468891514589</v>
       </c>
       <c r="E65">
-        <v>0.009183798050288294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01704937574167218</v>
+      </c>
+      <c r="F65">
+        <v>0.03643697900551025</v>
+      </c>
+      <c r="G65">
+        <v>0.01539303707253636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005599765814512049</v>
+        <v>0.04883097946361585</v>
       </c>
       <c r="C66">
-        <v>-0.002763084418675908</v>
+        <v>0.1132401323172108</v>
       </c>
       <c r="D66">
-        <v>0.1176558659973587</v>
+        <v>-0.01203834801403811</v>
       </c>
       <c r="E66">
-        <v>-0.01494928110996352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02734233976590249</v>
+      </c>
+      <c r="F66">
+        <v>0.04545061022397616</v>
+      </c>
+      <c r="G66">
+        <v>0.03734206720649279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001927067128910981</v>
+        <v>0.05301960515896727</v>
       </c>
       <c r="C67">
-        <v>0.05981887285944759</v>
+        <v>0.03331924146500374</v>
       </c>
       <c r="D67">
-        <v>0.03021772301421916</v>
+        <v>0.00546514543457204</v>
       </c>
       <c r="E67">
-        <v>-0.001272766183618954</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0008985082048449878</v>
+      </c>
+      <c r="F67">
+        <v>-0.01148306562586649</v>
+      </c>
+      <c r="G67">
+        <v>0.03980240745801158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05014926735663282</v>
+        <v>0.1452208264220086</v>
       </c>
       <c r="C68">
-        <v>0.2150034130466812</v>
+        <v>-0.2691718825596839</v>
       </c>
       <c r="D68">
-        <v>-0.1692045942593921</v>
+        <v>-0.002331934596171229</v>
       </c>
       <c r="E68">
-        <v>-0.009200757058934418</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.002788641098600044</v>
+      </c>
+      <c r="F68">
+        <v>-0.03989499007692456</v>
+      </c>
+      <c r="G68">
+        <v>0.02308561410036733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001556009782980989</v>
+        <v>0.07482812519762869</v>
       </c>
       <c r="C69">
-        <v>0.05053645204271682</v>
+        <v>0.06866787832025899</v>
       </c>
       <c r="D69">
-        <v>0.06014989498519881</v>
+        <v>0.008423655636332085</v>
       </c>
       <c r="E69">
-        <v>0.003447876747096946</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02654080242922205</v>
+      </c>
+      <c r="F69">
+        <v>-0.03862322466104007</v>
+      </c>
+      <c r="G69">
+        <v>0.04583187092460263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03631104256140764</v>
+        <v>0.1391195363149419</v>
       </c>
       <c r="C71">
-        <v>0.1895710003345463</v>
+        <v>-0.2319588175737869</v>
       </c>
       <c r="D71">
-        <v>-0.1542101271542418</v>
+        <v>0.006504883710243363</v>
       </c>
       <c r="E71">
-        <v>0.003479943205268427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02158778392551785</v>
+      </c>
+      <c r="F71">
+        <v>-0.00953018279293349</v>
+      </c>
+      <c r="G71">
+        <v>0.03787753414460567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0004117844250432556</v>
+        <v>0.08329987285901663</v>
       </c>
       <c r="C72">
-        <v>0.05876761583876201</v>
+        <v>0.07406260968881699</v>
       </c>
       <c r="D72">
-        <v>0.1306498764310308</v>
+        <v>0.008209708346569831</v>
       </c>
       <c r="E72">
-        <v>-0.01534743281908168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.005913987250834072</v>
+      </c>
+      <c r="F72">
+        <v>0.0422430657369912</v>
+      </c>
+      <c r="G72">
+        <v>0.01462438527566673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.0509707094660735</v>
+        <v>0.3942426363628501</v>
       </c>
       <c r="C73">
-        <v>0.1998020449530955</v>
+        <v>0.1180432674342815</v>
       </c>
       <c r="D73">
-        <v>0.1533112501442661</v>
+        <v>-0.01770235635450759</v>
       </c>
       <c r="E73">
-        <v>-0.08704190675508211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05359236487910243</v>
+      </c>
+      <c r="F73">
+        <v>0.5580046395693256</v>
+      </c>
+      <c r="G73">
+        <v>-0.1793894382021678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002176748929420319</v>
+        <v>0.1102350472328152</v>
       </c>
       <c r="C74">
-        <v>0.09467835172374506</v>
+        <v>0.1179337551336104</v>
       </c>
       <c r="D74">
-        <v>0.1507138569730065</v>
+        <v>0.009511020583286518</v>
       </c>
       <c r="E74">
-        <v>-0.003927205422125058</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01504306279685995</v>
+      </c>
+      <c r="F74">
+        <v>-0.07187663390811766</v>
+      </c>
+      <c r="G74">
+        <v>0.04928357765907115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.00840158103246073</v>
+        <v>0.2493454846045754</v>
       </c>
       <c r="C75">
-        <v>0.209978886472326</v>
+        <v>0.1602147387516722</v>
       </c>
       <c r="D75">
-        <v>0.2729300774551638</v>
+        <v>0.02931939840959862</v>
       </c>
       <c r="E75">
-        <v>-0.01764147614740524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05236658096284147</v>
+      </c>
+      <c r="F75">
+        <v>-0.18560928647732</v>
+      </c>
+      <c r="G75">
+        <v>-0.03489012071961498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001442697152635383</v>
+        <v>0.1262142856779258</v>
       </c>
       <c r="C76">
-        <v>0.1405657475536404</v>
+        <v>0.1188564155583219</v>
       </c>
       <c r="D76">
-        <v>0.2182749510424194</v>
+        <v>0.02033376097823509</v>
       </c>
       <c r="E76">
-        <v>0.01476807834742967</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04705458527679363</v>
+      </c>
+      <c r="F76">
+        <v>-0.1181214874347213</v>
+      </c>
+      <c r="G76">
+        <v>0.02851821686874886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01240424404258581</v>
+        <v>0.064474155965821</v>
       </c>
       <c r="C77">
-        <v>0.02321161849072454</v>
+        <v>0.06117975397572396</v>
       </c>
       <c r="D77">
-        <v>0.05137224301815699</v>
+        <v>-0.01213565201109717</v>
       </c>
       <c r="E77">
-        <v>-0.004903687814801063</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04954840689125468</v>
+      </c>
+      <c r="F77">
+        <v>0.01518636799848727</v>
+      </c>
+      <c r="G77">
+        <v>0.05005321843008662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00472631545954395</v>
+        <v>0.04101058835738411</v>
       </c>
       <c r="C78">
-        <v>0.02059286884847337</v>
+        <v>0.05087471377190799</v>
       </c>
       <c r="D78">
-        <v>0.06275912865719512</v>
+        <v>-0.005478260839280076</v>
       </c>
       <c r="E78">
-        <v>0.003533146197228127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02011932636664179</v>
+      </c>
+      <c r="F78">
+        <v>0.04277648697596979</v>
+      </c>
+      <c r="G78">
+        <v>0.04530554599983559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01651904062382389</v>
+        <v>0.05345213328216842</v>
       </c>
       <c r="C80">
-        <v>0.1092956753792891</v>
+        <v>0.06284701711582126</v>
       </c>
       <c r="D80">
-        <v>0.1364304249343447</v>
+        <v>-0.01321312876168098</v>
       </c>
       <c r="E80">
-        <v>0.9201255204840488</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03519702133197675</v>
+      </c>
+      <c r="F80">
+        <v>0.0462031790715219</v>
+      </c>
+      <c r="G80">
+        <v>0.858216684923201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.006309085907370136</v>
+        <v>0.1443224945373665</v>
       </c>
       <c r="C81">
-        <v>0.1306864630814143</v>
+        <v>0.09485425380869311</v>
       </c>
       <c r="D81">
-        <v>0.1594585596428818</v>
+        <v>0.01484684768475929</v>
       </c>
       <c r="E81">
-        <v>-0.0004058684654688199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02988741154984719</v>
+      </c>
+      <c r="F81">
+        <v>-0.1229372001649759</v>
+      </c>
+      <c r="G81">
+        <v>0.0226996119832387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1013513468747445</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05427954180686227</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004934458502148206</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07700698583194814</v>
+      </c>
+      <c r="F82">
+        <v>-0.01760227417577167</v>
+      </c>
+      <c r="G82">
+        <v>0.0209961245148989</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007184640665763372</v>
+        <v>0.02772904124957342</v>
       </c>
       <c r="C83">
-        <v>0.02616887272776189</v>
+        <v>0.02177827575272904</v>
       </c>
       <c r="D83">
-        <v>0.02185007078532549</v>
+        <v>-0.005407427721131122</v>
       </c>
       <c r="E83">
-        <v>-0.002519287287868182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02448932414641281</v>
+      </c>
+      <c r="F83">
+        <v>0.02350357045939016</v>
+      </c>
+      <c r="G83">
+        <v>0.02915585263516369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01447127402808665</v>
+        <v>0.2215853007878652</v>
       </c>
       <c r="C85">
-        <v>0.1612687766726247</v>
+        <v>0.1523824640720295</v>
       </c>
       <c r="D85">
-        <v>0.2544021084180023</v>
+        <v>0.01759649211195522</v>
       </c>
       <c r="E85">
-        <v>-0.02203027675996268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09313565603702652</v>
+      </c>
+      <c r="F85">
+        <v>-0.1559484648231104</v>
+      </c>
+      <c r="G85">
+        <v>-0.06141242191540827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007659752128575009</v>
+        <v>0.01025898115226406</v>
       </c>
       <c r="C86">
-        <v>0.02867593218708539</v>
+        <v>0.01678540699197396</v>
       </c>
       <c r="D86">
-        <v>0.009678044035321191</v>
+        <v>-0.01016818673214112</v>
       </c>
       <c r="E86">
-        <v>-0.02015543639933508</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03303802468051728</v>
+      </c>
+      <c r="F86">
+        <v>0.03056966658383546</v>
+      </c>
+      <c r="G86">
+        <v>0.07998161779371346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007687134388328783</v>
+        <v>0.01989720277349028</v>
       </c>
       <c r="C87">
-        <v>0.01744371397764101</v>
+        <v>0.02370446074666372</v>
       </c>
       <c r="D87">
-        <v>0.04132792054481002</v>
+        <v>-0.01055601411676932</v>
       </c>
       <c r="E87">
-        <v>-0.002295892018479938</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0819485663751917</v>
+      </c>
+      <c r="F87">
+        <v>0.02702399518213995</v>
+      </c>
+      <c r="G87">
+        <v>0.06051981970884582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02662587519134116</v>
+        <v>0.08936853265786178</v>
       </c>
       <c r="C88">
-        <v>0.03396565911678731</v>
+        <v>0.06562769173238689</v>
       </c>
       <c r="D88">
-        <v>0.03637067886590686</v>
+        <v>-0.02283260470131676</v>
       </c>
       <c r="E88">
-        <v>-0.0008963234515633579</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01364984813106456</v>
+      </c>
+      <c r="F88">
+        <v>-0.01637376229052662</v>
+      </c>
+      <c r="G88">
+        <v>0.03777293660834616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06952022485303939</v>
+        <v>0.2284304699766534</v>
       </c>
       <c r="C89">
-        <v>0.3525982937783082</v>
+        <v>-0.3626620379924352</v>
       </c>
       <c r="D89">
-        <v>-0.2667885325993305</v>
+        <v>0.005345916093071359</v>
       </c>
       <c r="E89">
-        <v>-0.01882937100056096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02214161507679023</v>
+      </c>
+      <c r="F89">
+        <v>-0.02648902531081701</v>
+      </c>
+      <c r="G89">
+        <v>0.03443824198484805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05232671197767889</v>
+        <v>0.2028562301741185</v>
       </c>
       <c r="C90">
-        <v>0.2663883849398054</v>
+        <v>-0.3273049882739409</v>
       </c>
       <c r="D90">
-        <v>-0.2332093507475195</v>
+        <v>0.0094215094212563</v>
       </c>
       <c r="E90">
-        <v>-0.02169557408861868</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0219000156062764</v>
+      </c>
+      <c r="F90">
+        <v>-0.0468619220535362</v>
+      </c>
+      <c r="G90">
+        <v>0.006517086453571129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.004654556207318164</v>
+        <v>0.1976627071959605</v>
       </c>
       <c r="C91">
-        <v>0.180240775461868</v>
+        <v>0.1428403125720319</v>
       </c>
       <c r="D91">
-        <v>0.2295642796342951</v>
+        <v>0.02321557054935385</v>
       </c>
       <c r="E91">
-        <v>-0.004481387703435208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06955484741436897</v>
+      </c>
+      <c r="F91">
+        <v>-0.1603888377309374</v>
+      </c>
+      <c r="G91">
+        <v>0.008580538229693164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01955366894994953</v>
+        <v>0.2077102662830009</v>
       </c>
       <c r="C92">
-        <v>0.3054700841614545</v>
+        <v>-0.2617855324044436</v>
       </c>
       <c r="D92">
-        <v>-0.1236140054969164</v>
+        <v>0.04590318966657673</v>
       </c>
       <c r="E92">
-        <v>-0.01031569119632939</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.003360365053431284</v>
+      </c>
+      <c r="F92">
+        <v>-0.0779530837030367</v>
+      </c>
+      <c r="G92">
+        <v>0.07557800103525582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05013747914887474</v>
+        <v>0.2317955025855325</v>
       </c>
       <c r="C93">
-        <v>0.2963617915803599</v>
+        <v>-0.3192184736946134</v>
       </c>
       <c r="D93">
-        <v>-0.2283600040143287</v>
+        <v>0.01637866939260587</v>
       </c>
       <c r="E93">
-        <v>-0.04147534479129079</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008508831953362512</v>
+      </c>
+      <c r="F93">
+        <v>-0.03926733026146368</v>
+      </c>
+      <c r="G93">
+        <v>0.003553840653447032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02711984888417259</v>
+        <v>0.2987131819287769</v>
       </c>
       <c r="C94">
-        <v>0.208632019772326</v>
+        <v>0.1918473849034494</v>
       </c>
       <c r="D94">
-        <v>0.2369433105489691</v>
+        <v>0.01362467191940631</v>
       </c>
       <c r="E94">
-        <v>-0.05066972136984328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1466794262138787</v>
+      </c>
+      <c r="F94">
+        <v>-0.4903781137030009</v>
+      </c>
+      <c r="G94">
+        <v>-0.1879325285052954</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004184035563429492</v>
+        <v>0.08441958622951051</v>
       </c>
       <c r="C95">
-        <v>0.05738546887102087</v>
+        <v>0.07263924385135155</v>
       </c>
       <c r="D95">
-        <v>0.08943391379209412</v>
+        <v>0.008264004876863669</v>
       </c>
       <c r="E95">
-        <v>-0.1097561632628809</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06541540250404038</v>
+      </c>
+      <c r="F95">
+        <v>0.1516227565255134</v>
+      </c>
+      <c r="G95">
+        <v>-0.06273028811705403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01130952113023047</v>
+        <v>0.1958474599627952</v>
       </c>
       <c r="C98">
-        <v>0.1702113051399452</v>
+        <v>0.04364234609037428</v>
       </c>
       <c r="D98">
-        <v>0.1087243690296457</v>
+        <v>0.01380769463590637</v>
       </c>
       <c r="E98">
-        <v>-0.04798571076688985</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0641879178451019</v>
+      </c>
+      <c r="F98">
+        <v>0.2539252017518001</v>
+      </c>
+      <c r="G98">
+        <v>-0.030856209303776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007703689239435501</v>
+        <v>0.01037842131395659</v>
       </c>
       <c r="C101">
-        <v>0.02033720422544972</v>
+        <v>0.01894113125554888</v>
       </c>
       <c r="D101">
-        <v>0.009705784164066504</v>
+        <v>-0.007225147615173245</v>
       </c>
       <c r="E101">
-        <v>0.007409578588208517</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007710463470110147</v>
+      </c>
+      <c r="F101">
+        <v>-0.01430275472316529</v>
+      </c>
+      <c r="G101">
+        <v>0.04344629307998142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01650472601967189</v>
+        <v>0.1193343743675682</v>
       </c>
       <c r="C102">
-        <v>0.09186479043366481</v>
+        <v>0.08653343466286091</v>
       </c>
       <c r="D102">
-        <v>0.1221321461698192</v>
+        <v>-0.001737195828829024</v>
       </c>
       <c r="E102">
-        <v>-0.009566546699866981</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02877795566575952</v>
+      </c>
+      <c r="F102">
+        <v>-0.03404919189624708</v>
+      </c>
+      <c r="G102">
+        <v>-0.0003808941277582606</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001552540383980891</v>
+        <v>0.003496770574561093</v>
       </c>
       <c r="C103">
-        <v>0.01285844174540754</v>
+        <v>0.004861212435778614</v>
       </c>
       <c r="D103">
-        <v>0.02531548350759163</v>
+        <v>-0.0001196814560821472</v>
       </c>
       <c r="E103">
-        <v>0.01581858881232781</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001361439804387239</v>
+      </c>
+      <c r="F103">
+        <v>-0.00929183957990057</v>
+      </c>
+      <c r="G103">
+        <v>0.01583627435506438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9802432124866574</v>
+        <v>0.02842250168805464</v>
       </c>
       <c r="C104">
-        <v>-0.1445508789760432</v>
+        <v>-0.03844128588291247</v>
       </c>
       <c r="D104">
-        <v>-0.002130118412285003</v>
+        <v>-0.9875839055200524</v>
       </c>
       <c r="E104">
-        <v>0.02389744722798374</v>
+        <v>0.0373844984575062</v>
+      </c>
+      <c r="F104">
+        <v>-0.04092443966766199</v>
+      </c>
+      <c r="G104">
+        <v>-0.01261402361276382</v>
       </c>
     </row>
   </sheetData>
